--- a/Banco_de_dados_praticas.xlsx
+++ b/Banco_de_dados_praticas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Nome</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>Genero</t>
+    <t>Gênero</t>
   </si>
   <si>
     <t>outros</t>
@@ -52,25 +52,40 @@
     <t>LiberdadeExpressão</t>
   </si>
   <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>kauan</t>
+  </si>
+  <si>
+    <t>henrique</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
     <t>André</t>
   </si>
   <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>kaua</t>
-  </si>
-  <si>
-    <t>José</t>
-  </si>
-  <si>
-    <t>Davi</t>
-  </si>
-  <si>
-    <t>Dantas</t>
-  </si>
-  <si>
-    <t>Opa</t>
+    <t>Scooby</t>
+  </si>
+  <si>
+    <t>André Lucas</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Andressa</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Feminino</t>
   </si>
   <si>
     <t>Masculino</t>
@@ -79,7 +94,19 @@
     <t>Outros</t>
   </si>
   <si>
-    <t>Cisgenero</t>
+    <t>Cisgênero</t>
+  </si>
+  <si>
+    <t>Não-binário</t>
+  </si>
+  <si>
+    <t>Transgênero</t>
+  </si>
+  <si>
+    <t>Agênero</t>
+  </si>
+  <si>
+    <t>Cachorrão</t>
   </si>
 </sst>
 </file>
@@ -437,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,16 +513,13 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -524,7 +548,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -553,13 +583,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -571,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -582,10 +618,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -594,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -603,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -613,11 +655,17 @@
       <c r="B6">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -629,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -639,11 +687,23 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -652,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -663,28 +723,212 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
